--- a/Stuecklisten/Stuecklisten_RahmenMitTuer_RahmenOhneTuer.xlsx
+++ b/Stuecklisten/Stuecklisten_RahmenMitTuer_RahmenOhneTuer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bulme-my.sharepoint.com/personal/maximilian_stessl_ms_bulme_at/Documents/Microsoft Teams-Chatdateien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adisa.bylygbashi\Documents\SPL_3BHWII\CandyMachine_Watermelon\Stuecklisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE796EE-9761-4B42-A4DD-64CD30BABC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292BC828-7F29-46CD-8F42-BE8FB002B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{88596E44-11E1-465B-99E0-15FA43A2DF17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{88596E44-11E1-465B-99E0-15FA43A2DF17}"/>
   </bookViews>
   <sheets>
     <sheet name="RahmenkonstruktionOhneTuer" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
   <si>
     <t>Stückliste Rahmen ohne Tür</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Seitenwand rechts (Acrylglas 3 mm) 600x400</t>
   </si>
   <si>
-    <t xml:space="preserve">	‎KPLPMMA0030ST400600</t>
-  </si>
-  <si>
     <t>Acrylglas</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Acrylglas - Tuerfenster oben</t>
   </si>
   <si>
-    <t>B09F3WRW82</t>
-  </si>
-  <si>
     <t>CornerCubes</t>
   </si>
   <si>
@@ -265,13 +259,25 @@
   </si>
   <si>
     <t>~205,34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C10000-AC03</t>
+  </si>
+  <si>
+    <t>Plattenzuschnitt24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		C10000-AC03</t>
+  </si>
+  <si>
+    <t>C10000-AC03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,11 +339,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -473,16 +474,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,13 +491,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,10 +504,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,6 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -864,27 +865,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0839C1-1916-4FC0-8608-67A606915708}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="16384" max="16384" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16384" max="16384" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1031,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1044,25 +1045,25 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>7.25</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
@@ -1092,27 +1093,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14481D3B-E1B9-4C7E-926C-04FAAF93C38C}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="15">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1150,7 @@
       <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4">
@@ -1177,25 +1179,25 @@
       <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>32</v>
+      <c r="C4" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>10.130000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="F4" s="4">
-        <v>10.130000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1204,39 +1206,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>10.130000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="F5" s="4">
-        <v>10.130000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>69</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1257,15 +1259,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="15" t="s">
         <v>36</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1286,24 +1288,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:9">
@@ -1311,7 +1313,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1321,12 +1323,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00FB3798-AAAC-4DC7-8307-15FAEE842656}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{2101D6C9-B54B-4F27-8533-4B3D329F16F9}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{9E157C07-BD39-4FCC-9356-8F9F3DC711ED}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{E77CB9B1-541D-4E98-A197-3351CA61A83C}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{5C8958C7-43EC-4F90-A407-D4B9D32132DA}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{9E157C07-BD39-4FCC-9356-8F9F3DC711ED}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{2101D6C9-B54B-4F27-8533-4B3D329F16F9}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{BB0B231D-4D56-4662-B1FD-83CB6B6C679E}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{850B9D35-B619-4CE0-82FC-AD5809892D27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1335,28 +1338,28 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1372,10 +1375,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -1391,8 +1394,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>44</v>
+      <c r="B3" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>103420</v>
@@ -1416,24 +1419,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33.75">
+    <row r="4" spans="1:10" ht="27.6">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
@@ -1445,41 +1448,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>5.15</v>
+        <v>4.51</v>
       </c>
       <c r="F5" s="4">
-        <v>5.15</v>
+        <v>4.51</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8">
         <v>100922</v>
@@ -1503,24 +1506,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" customHeight="1">
+    <row r="7" spans="1:10" ht="14.4" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
+        <v>49</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1531,9 +1534,9 @@
         <v>100315</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="9">
@@ -1545,22 +1548,22 @@
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15">
+      <c r="I8" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9">
         <v>4</v>
@@ -1574,51 +1577,51 @@
       <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
+      <c r="I9" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>1.67</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>1.67</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="C11" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1633,16 +1636,16 @@
         <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8"/>
@@ -1653,12 +1656,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1669,12 +1672,12 @@
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{FF6F2A9B-68BA-494C-AD12-7CD830E49792}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{2EFE47DB-0410-4C39-84EB-A97A40E506E0}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{5937B123-35F5-45F4-B86F-17CF71AE6255}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{215D0A79-FDBD-47E9-BA1B-6B2F2F6ACCD3}"/>
-    <hyperlink ref="I8" r:id="rId5" display="LInk" xr:uid="{50DBD59B-4175-410D-ACF6-19DBEF4FECB1}"/>
-    <hyperlink ref="I9" r:id="rId6" xr:uid="{8678A1F0-223F-4991-805D-6EC7AB143164}"/>
-    <hyperlink ref="I11" r:id="rId7" xr:uid="{FF43AA8E-0341-404D-9D7B-B37A9D083016}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{2414133F-9525-449E-B258-522CBFEC1B2A}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{215D0A79-FDBD-47E9-BA1B-6B2F2F6ACCD3}"/>
+    <hyperlink ref="I8" r:id="rId4" display="LInk" xr:uid="{50DBD59B-4175-410D-ACF6-19DBEF4FECB1}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{8678A1F0-223F-4991-805D-6EC7AB143164}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{FF43AA8E-0341-404D-9D7B-B37A9D083016}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{2414133F-9525-449E-B258-522CBFEC1B2A}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{E0A08999-7D4E-4053-9DC2-7DA08D8935D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1688,16 +1691,16 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="28" t="s">
-        <v>64</v>
+      <c r="A1" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>96.12</v>
@@ -1705,29 +1708,29 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>32.86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29">
+      <c r="A4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28">
         <v>76.61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
